--- a/Mach4_lbl.xlsx
+++ b/Mach4_lbl.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgerbing/Dropbox/511Stuff/BookNew/data/mach/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgerbing/Documents/BookNew/data/mach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{844A14DF-AEEE-7240-8B77-1D1D1035285D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B739C-5791-2640-8086-D1CFB02C1F88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="5160" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mach4_lbl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -145,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +277,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,8 +630,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -979,174 +990,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.5" right="0.5" top="1" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>